--- a/Design/BOM.xlsx
+++ b/Design/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseboth/Develop/USB-Power-Commander/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9D0DD1-ECB2-F641-AF97-2D5AF6D9A8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735E531-D65E-DD4F-BC7B-42211CCD99D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{DC4069F3-DCCB-164F-B82D-4BF261A4AFFF}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Prototype" sheetId="3" r:id="rId3"/>
     <sheet name="Case" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
   <si>
     <t>Component</t>
   </si>
@@ -169,6 +169,27 @@
   </si>
   <si>
     <t>Pi zero w2</t>
+  </si>
+  <si>
+    <t>Server Shelf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jingchengmei-Disassembled-Cantilever-19-Inch-Equipment/dp/B07Z7NYBWX/ref=sr_1_10?dib=eyJ2IjoiMSJ9.5KFRhYmFX16D-QYzm_-OCU4Oqpp30aag-kl2hTXR5ngF9catyzoV-6_hGDyhxebHlHJxc_Dk4Mi_DmQ_gdCm35Q2NaKEy4Qs6KV7KGV_qjR6aYiFk4xytnNN2-X-KrqABfr_z4izlhE8BSVdr3PBz8axCDj4n0oFrJlj0ZgBXA5avuU0CS9zJVyOlDF8B1FvLOGG8YEp_wIZ9rp5RHY6F_cTEYEaxDFQoO9Q_Xox1kw.uGTX0wHcWqoXm1wc-W0Xbn8TwBgjd1oigHopio1OEP0&amp;dib_tag=se&amp;keywords=1u%2Brack%2Bshelf&amp;qid=1728436959&amp;sr=8-10&amp;th=1</t>
+  </si>
+  <si>
+    <t>usb test hub</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sabrent-4-Port-Individual-Switches-HB-UMLS/dp/B00BWF5U0M/ref=asc_df_B00BWF5U0M/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693275687937&amp;hvpos=&amp;hvnetw=g&amp;hvrand=16819947901307792425&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9005678&amp;hvtargid=pla-382102355910&amp;mcid=b2b757f082443c029947226a46689ce0&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/PCB007-Position-Distribution-Outputs-Voltage/dp/B07DW2C4ZB/ref=asc_df_B07DW2C4ZB/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693601911088&amp;hvpos=&amp;hvnetw=g&amp;hvrand=6232173779782700887&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9005678&amp;hvtargid=pla-727628118237&amp;psc=1&amp;mcid=1b3dd9db92273c1293035c2ad9e88737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usb 3V power </t>
+  </si>
+  <si>
+    <t>Purchased</t>
   </si>
 </sst>
 </file>
@@ -226,12 +247,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.249977111117893"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -292,6 +313,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -306,6 +340,17 @@
       </right>
       <top/>
       <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -315,48 +360,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,17 +402,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -395,6 +478,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,396 +814,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9464E6C3-FB8F-4646-AB35-9E4C31517168}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B20" sqref="B20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="8"/>
-    <col min="5" max="5" width="33.6640625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="10" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="38" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="32" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36">
-        <v>1</v>
-      </c>
-      <c r="D2" s="35">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41">
+        <v>1</v>
+      </c>
+      <c r="E2" s="40">
         <v>12.5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18">
+      <c r="C3" s="13"/>
+      <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="E3" s="13">
         <v>24.99</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
         <v>9.99</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
         <v>7.99</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
         <v>16.989999999999998</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
         <v>6.88</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26">
-        <v>1</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18">
         <v>21.04</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="F8" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19">
         <v>10</v>
       </c>
-      <c r="D9" s="25">
+      <c r="E9" s="18">
         <v>2.1</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="F9" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26">
-        <v>1</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
         <v>7.99</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="F10" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
         <v>7.85</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
         <v>4.99</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26">
-        <v>1</v>
-      </c>
-      <c r="D13" s="25">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
         <v>13.99</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="F13" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26">
-        <v>1</v>
-      </c>
-      <c r="D14" s="25">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
         <v>2.99</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="F14" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26">
-        <v>1</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="C15" s="18"/>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18">
         <v>4.79</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="F15" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18">
-        <v>1</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
         <v>7.99</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="1"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12" cm="1">
-        <f t="array" ref="D20">SUM(C2:C19*D2:D19)</f>
-        <v>206.96</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-    </row>
-    <row r="44" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8" cm="1">
+        <f t="array" ref="E20">SUM(D2:D19*E2:E19)</f>
+        <v>224.95000000000002</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27"/>
+    </row>
+    <row r="33" spans="2:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" display="https://www.amazon.com/ZOERAX-Keystone-Coupler-12-Pack-Female/dp/B0CLV64XJ9/ref=asc_df_B0CLV64XJ9/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693404282528&amp;hvpos=&amp;hvnetw=g&amp;hvrand=12038947193981685309&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9005678&amp;hvtargid=pla-2276731435098&amp;mcid=111a4554a46c373c9f0a5fab6fad6e88&amp;th=1" xr:uid="{956DF4D0-5745-064D-B088-360ECC4F286C}"/>
-    <hyperlink ref="E11" r:id="rId2" display="https://www.amazon.com/SanDisk-Ultra-UHS-I-Memory-Adapter/dp/B00M55C0NS/ref=sr_1_6?crid=36HYLJB7X3Y6E&amp;dib=eyJ2IjoiMSJ9.B95zlcmYonfz4dY7353CikOTGq4gxvPdpZ9JTVXWNlyfMDckQgVMLtmSU-ciI38VHn3WTA32FXrJWKX_C_pA6Z6275SQDJp-S40Jy7yymGCUbB8lzqYN79md50qMIyRDt5IO9Tl_9Tp2lU_Sed1H-sVl9VsDganIfZlJelE4ioYEb2vtDRIvPMNTtUG-M92nnTVmG2gJowKqHqMnLU0c5g05LfdeBIUP2ldWS1PncQk.jyYjT_UttRABCcKh_VNAXxGDaAnNfq1NjftEmF29hKY&amp;dib_tag=se&amp;keywords=32gb+micro+sd+card&amp;qid=1728432832&amp;sprefix=32gb+micro+sd+card%2Caps%2C77&amp;sr=8-6" xr:uid="{585ED263-C2E5-2149-B636-08B1EC1E7C25}"/>
-    <hyperlink ref="E12" r:id="rId3" xr:uid="{73D55C97-0661-874C-B353-CF8E1A7FC0DB}"/>
+    <hyperlink ref="F10" r:id="rId1" display="https://www.amazon.com/ZOERAX-Keystone-Coupler-12-Pack-Female/dp/B0CLV64XJ9/ref=asc_df_B0CLV64XJ9/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693404282528&amp;hvpos=&amp;hvnetw=g&amp;hvrand=12038947193981685309&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9005678&amp;hvtargid=pla-2276731435098&amp;mcid=111a4554a46c373c9f0a5fab6fad6e88&amp;th=1" xr:uid="{956DF4D0-5745-064D-B088-360ECC4F286C}"/>
+    <hyperlink ref="F11" r:id="rId2" display="https://www.amazon.com/SanDisk-Ultra-UHS-I-Memory-Adapter/dp/B00M55C0NS/ref=sr_1_6?crid=36HYLJB7X3Y6E&amp;dib=eyJ2IjoiMSJ9.B95zlcmYonfz4dY7353CikOTGq4gxvPdpZ9JTVXWNlyfMDckQgVMLtmSU-ciI38VHn3WTA32FXrJWKX_C_pA6Z6275SQDJp-S40Jy7yymGCUbB8lzqYN79md50qMIyRDt5IO9Tl_9Tp2lU_Sed1H-sVl9VsDganIfZlJelE4ioYEb2vtDRIvPMNTtUG-M92nnTVmG2gJowKqHqMnLU0c5g05LfdeBIUP2ldWS1PncQk.jyYjT_UttRABCcKh_VNAXxGDaAnNfq1NjftEmF29hKY&amp;dib_tag=se&amp;keywords=32gb+micro+sd+card&amp;qid=1728432832&amp;sprefix=32gb+micro+sd+card%2Caps%2C77&amp;sr=8-6" xr:uid="{585ED263-C2E5-2149-B636-08B1EC1E7C25}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{73D55C97-0661-874C-B353-CF8E1A7FC0DB}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{D3D3D8AC-1BFD-104C-A3A3-A94BF7424D80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1111,128 +1198,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF4F46E-82D5-7749-AB80-19CE4B1B21BA}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>24.99</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="F1" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29">
+        <v>6.79</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>9.99</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="C4" s="37"/>
+      <c r="D4" s="38">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37">
         <v>4.99</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>7.99</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>7.85</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12" cm="1">
-        <f t="array" ref="D7">SUM(C2:C6*D2:D6)</f>
-        <v>55.81</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" cm="1">
+        <f t="array" ref="E7">SUM(D2:D6*E2:E6)</f>
+        <v>32.620000000000005</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" display="https://www.amazon.com/SanDisk-Ultra-UHS-I-Memory-Adapter/dp/B00M55C0NS/ref=sr_1_6?crid=36HYLJB7X3Y6E&amp;dib=eyJ2IjoiMSJ9.B95zlcmYonfz4dY7353CikOTGq4gxvPdpZ9JTVXWNlyfMDckQgVMLtmSU-ciI38VHn3WTA32FXrJWKX_C_pA6Z6275SQDJp-S40Jy7yymGCUbB8lzqYN79md50qMIyRDt5IO9Tl_9Tp2lU_Sed1H-sVl9VsDganIfZlJelE4ioYEb2vtDRIvPMNTtUG-M92nnTVmG2gJowKqHqMnLU0c5g05LfdeBIUP2ldWS1PncQk.jyYjT_UttRABCcKh_VNAXxGDaAnNfq1NjftEmF29hKY&amp;dib_tag=se&amp;keywords=32gb+micro+sd+card&amp;qid=1728432832&amp;sprefix=32gb+micro+sd+card%2Caps%2C77&amp;sr=8-6" xr:uid="{212D9455-4DFA-934C-8508-15E3CF69495D}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{63541039-A95C-4B47-AF99-AA6175F5CD9E}"/>
-    <hyperlink ref="E3" r:id="rId3" display="https://www.amazon.com/Breakout-MELIFE-Adapter-2-54mm-Pinboard/dp/B0B8CMW26K/ref=sr_1_3?dib=eyJ2IjoiMSJ9.HOPQpIeMwBFqgK-XH-XBt1_eAeS-RWglNKkXzdqKaQitzHxHFgCPRdC0BU-86j33r2m4PlTsNYe1hWJdA5OJj-OdbM7uIDK___H2EUbKMe0JSLe6ARrMvxYFFD-y3_z--ntqw-EDO5Ha2dPw5TopVQewSm_IW8bj1cJDNbRI6HRQieMjiub9DVPSnKzRwbDmr4hhfU5LqN8c-uCEYYPNN_2-nadCh7CXGmTps2MrVDU.4iF9wKbnngQTNjG0Nu1yWEfoLL_5Qe6qe7YmG8ph87I&amp;dib_tag=se&amp;keywords=usb%2Bbreakout%2Bboard&amp;qid=1728155276&amp;sr=8-3&amp;th=1" xr:uid="{5B82AEFC-7986-8F43-BEB0-59116960E10A}"/>
+    <hyperlink ref="F6" r:id="rId1" display="https://www.amazon.com/SanDisk-Ultra-UHS-I-Memory-Adapter/dp/B00M55C0NS/ref=sr_1_6?crid=36HYLJB7X3Y6E&amp;dib=eyJ2IjoiMSJ9.B95zlcmYonfz4dY7353CikOTGq4gxvPdpZ9JTVXWNlyfMDckQgVMLtmSU-ciI38VHn3WTA32FXrJWKX_C_pA6Z6275SQDJp-S40Jy7yymGCUbB8lzqYN79md50qMIyRDt5IO9Tl_9Tp2lU_Sed1H-sVl9VsDganIfZlJelE4ioYEb2vtDRIvPMNTtUG-M92nnTVmG2gJowKqHqMnLU0c5g05LfdeBIUP2ldWS1PncQk.jyYjT_UttRABCcKh_VNAXxGDaAnNfq1NjftEmF29hKY&amp;dib_tag=se&amp;keywords=32gb+micro+sd+card&amp;qid=1728432832&amp;sprefix=32gb+micro+sd+card%2Caps%2C77&amp;sr=8-6" xr:uid="{212D9455-4DFA-934C-8508-15E3CF69495D}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{63541039-A95C-4B47-AF99-AA6175F5CD9E}"/>
+    <hyperlink ref="F3" r:id="rId3" display="https://www.amazon.com/Breakout-MELIFE-Adapter-2-54mm-Pinboard/dp/B0B8CMW26K/ref=sr_1_3?dib=eyJ2IjoiMSJ9.HOPQpIeMwBFqgK-XH-XBt1_eAeS-RWglNKkXzdqKaQitzHxHFgCPRdC0BU-86j33r2m4PlTsNYe1hWJdA5OJj-OdbM7uIDK___H2EUbKMe0JSLe6ARrMvxYFFD-y3_z--ntqw-EDO5Ha2dPw5TopVQewSm_IW8bj1cJDNbRI6HRQieMjiub9DVPSnKzRwbDmr4hhfU5LqN8c-uCEYYPNN_2-nadCh7CXGmTps2MrVDU.4iF9wKbnngQTNjG0Nu1yWEfoLL_5Qe6qe7YmG8ph87I&amp;dib_tag=se&amp;keywords=usb%2Bbreakout%2Bboard&amp;qid=1728155276&amp;sr=8-3&amp;th=1" xr:uid="{5B82AEFC-7986-8F43-BEB0-59116960E10A}"/>
+    <hyperlink ref="F2" r:id="rId4" display="https://www.amazon.com/Sabrent-4-Port-Individual-Switches-HB-UMLS/dp/B00BWF5U0M/ref=asc_df_B00BWF5U0M/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693275687937&amp;hvpos=&amp;hvnetw=g&amp;hvrand=16819947901307792425&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9005678&amp;hvtargid=pla-382102355910&amp;mcid=b2b757f082443c029947226a46689ce0&amp;th=1" xr:uid="{BF2C54EB-ADB4-3444-B77F-F08B113438C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1240,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6B7F1F-E549-B249-B27D-3963EC162FA6}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,170 +1361,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21">
+      <c r="B2" s="1"/>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>7.99</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="B3" s="1"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>16.989999999999998</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>6.88</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>21.04</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="1">
         <v>2.1</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
+      <c r="B7" s="1"/>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>7.99</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="B8" s="1"/>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>13.99</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="B9" s="1"/>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>2.99</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>24.99</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="B12" s="1"/>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>4.79</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12" cm="1">
-        <f t="array" ref="D11">SUM(C6:C10*D6:D10)</f>
-        <v>50.760000000000005</v>
-      </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8" cm="1">
+        <f t="array" ref="D13">SUM(C2:C12*D2:D12)</f>
+        <v>160.62999999999997</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.amazon.com/naughtystarts-Breakout-Female-Connector-Adapter/dp/B0B1J2ZH9R/ref=sr_1_2?crid=CT5L4C5Z5L1I&amp;dib=eyJ2IjoiMSJ9.SFgg5GemoSG_FDYIx4JFfwils__JDXNnlB38Kz9og8Sr7BkrSgo9FQU9O_g7VYdgInEeT8YkgtlVH2OE53h1hewYANcuGY1uXGwHWSADf4yDWFHyyf_Mkv1SxKRo-YyU6dvP3Fdp2Pp8b_ENJc9cDS5YPhqq3FWgNgKaI-sjmBny8ODEPBh1UnaO2EFinWgWsQvsYKhraRMEWRjCfMmIueALYzLUHRkzHegewQ41iKw.8JdnPOa5njGnFCh93ylhBkk6LQbwBJ4bIhijCVmTQ10&amp;dib_tag=se&amp;keywords=usb%2Bb%2Bbreakout%2Bboard&amp;qid=1728155330&amp;sprefix=usb%2Bb%2Bbreakout%2Bboard%2Caps%2C103&amp;sr=8-2&amp;th=1" xr:uid="{4BB0D77B-1B01-BF48-AC4B-EBE123B2E458}"/>
@@ -1424,6 +1562,8 @@
     <hyperlink ref="E4" r:id="rId3" display="https://www.amazon.com/VizGiz-Connector-5-5x2-1mm-Terminal-Replacement/dp/B07MPS3QD8/ref=sr_1_7?dib=eyJ2IjoiMSJ9.-vrLRh-nKNOoC5kN3DAlTTbqcgH48BDB4D9HNsTr-uNhqWFDDEW1tomUwfD44amC1p6E1_j2W3AMcIpnuEwkGUmZHYjfa8RkUHpeGeI-zM6Dd-L8MghMwGDBuhM_AuRAAT9xy5xV_DmlmqyXCHAfy44ce6q-8JLswRXQZ9vQ6ZPpmPdVB6I1GTnVlKlfdNHZ_BLME-BoBbBS0UQ-X-6ruvU0X8yWyICGfmLBKjtW9N8.LS9UwjL_n0vSQpGzz8oI1hIUkN8cezZgL9aaI9fLVy4&amp;dib_tag=se&amp;keywords=dc+jack+panel+mount&amp;qid=1728155850&amp;sr=8-7" xr:uid="{9CFA8F9D-D218-B445-8EEF-193A8D24A122}"/>
     <hyperlink ref="E7" r:id="rId4" display="https://www.amazon.com/ZOERAX-Keystone-Coupler-12-Pack-Female/dp/B0CLV64XJ9/ref=asc_df_B0CLV64XJ9/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693404282528&amp;hvpos=&amp;hvnetw=g&amp;hvrand=12038947193981685309&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9005678&amp;hvtargid=pla-2276731435098&amp;mcid=111a4554a46c373c9f0a5fab6fad6e88&amp;th=1" xr:uid="{7BFE495E-4849-E64A-A9BE-B7DD6E98EC02}"/>
     <hyperlink ref="E5" r:id="rId5" xr:uid="{42DF4347-6271-2943-849F-D22A580A7090}"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://www.amazon.com/PCB007-Position-Distribution-Outputs-Voltage/dp/B07DW2C4ZB/ref=asc_df_B07DW2C4ZB/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693601911088&amp;hvpos=&amp;hvnetw=g&amp;hvrand=6232173779782700887&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9005678&amp;hvtargid=pla-727628118237&amp;psc=1&amp;mcid=1b3dd9db92273c1293035c2ad9e88737" xr:uid="{3F7D03F7-3BB8-534B-84F4-3900D752275B}"/>
+    <hyperlink ref="E12" r:id="rId7" display="https://www.amazon.com/Terminal-Circuits-200v-450v-Terminals-Connectors/dp/B09VT1KHZL/ref=asc_df_B09VT1KHZL/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693270340473&amp;hvpos=&amp;hvnetw=g&amp;hvrand=12293061366180285590&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9005678&amp;hvtargid=pla-1685882594049&amp;mcid=99bd4dfd34e636e39df8ecba89232289&amp;th=1" xr:uid="{CB4BE0C0-A39C-7347-B49E-F6C112B0F422}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1431,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AB9E56-794E-284F-80CC-FA3F9F3452C9}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1443,38 +1583,80 @@
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>12.5</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8" cm="1">
+        <f t="array" ref="D6">SUM(C2:C5*D2:D5)</f>
+        <v>30.49</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
